--- a/Data Collection Files/servinsp1 Table.xlsx
+++ b/Data Collection Files/servinsp1 Table.xlsx
@@ -5,16 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\School Winter 2021\4th Year Winter\Sysc 4005 Simulation + Modelling\Project\Milestone 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\School Winter 2021\4th Year Winter\Sysc 4005 Simulation + Modelling\Project\Project_Git\SYSC-4005-Project\Data Collection Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D693-E48A-4C2D-B66D-03748AB189EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE6A75-C208-4FFC-89E5-489E01F425FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15495" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servinsp1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">servinsp1!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">servinsp1!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">servinsp1!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">servinsp1!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">servinsp1!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">servinsp1!$J$4:$J$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -624,8 +632,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Serving SP1</a:t>
+              <a:t>Inspector 1 Inspection</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -678,6 +691,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>servinsp1!$L$4:$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>&lt;5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt;5, &lt;10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;10, &lt;15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt;15, &lt;20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;20, &lt;25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&gt;25, &lt;30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;30, &lt;35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&gt;35, &lt;40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&gt;40, &lt;45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;45, &lt;50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;50, &lt;55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;55, &lt;60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>&gt;60, &lt;65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>&gt;65, &lt;70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>&gt;70, &lt;75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>&gt;75, &lt;80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>servinsp1!$J$4:$J$19</c:f>
@@ -749,8 +818,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="150"/>
         <c:axId val="682024848"/>
         <c:axId val="682022608"/>
       </c:barChart>
@@ -761,6 +829,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -825,6 +894,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Nuber</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> of Data Points </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -860,6 +989,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1460,15 +1628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1793,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,17 +1975,17 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10.16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13.507999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.5860000000000001</v>
       </c>
@@ -1834,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16.704999999999998</v>
       </c>
@@ -1856,8 +2024,12 @@
         <f>COUNTIFS(A1:A300,"&gt;"&amp;H4,A1:A300,"&lt;"&amp;H5)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <f>_xlfn.CONCAT("&lt;",H5)</f>
+        <v>&lt;5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.5519999999999996</v>
       </c>
@@ -1866,11 +2038,15 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <f>COUNTIFS(A2:A301,"&gt;"&amp;H5,A2:A301,"&lt;"&amp;H6)</f>
+        <f t="shared" ref="J4:J14" si="0">COUNTIFS(A2:A301,"&gt;"&amp;H5,A2:A301,"&lt;"&amp;H6)</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <f>_xlfn.CONCAT("&gt;",H5, ", &lt;", H6)</f>
+        <v>&gt;5, &lt;10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.8179999999999996</v>
       </c>
@@ -1878,15 +2054,19 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H20" si="0">H5+($E$4/$F$4)</f>
+        <f t="shared" ref="H6:H20" si="1">H5+($E$4/$F$4)</f>
         <v>10</v>
       </c>
       <c r="J6">
-        <f>COUNTIFS(A3:A302,"&gt;"&amp;H6,A3:A302,"&lt;"&amp;H7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L20" si="2">_xlfn.CONCAT("&gt;",H6, ", &lt;", H7)</f>
+        <v>&gt;10, &lt;15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.36199999999999999</v>
       </c>
@@ -1895,235 +2075,287 @@
         <v>10.357909999999993</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <f>COUNTIFS(A4:A303,"&gt;"&amp;H7,A4:A303,"&lt;"&amp;H8)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;15, &lt;20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0949999999999998</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J8">
-        <f>COUNTIFS(A5:A304,"&gt;"&amp;H8,A5:A304,"&lt;"&amp;H9)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;20, &lt;25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.9890000000000008</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <f>COUNTIFS(A6:A305,"&gt;"&amp;H9,A6:A305,"&lt;"&amp;H10)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;25, &lt;30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.35799999999999998</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <f>COUNTIFS(A7:A306,"&gt;"&amp;H10,A7:A306,"&lt;"&amp;H11)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;30, &lt;35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.2559999999999998</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <f>COUNTIFS(A8:A307,"&gt;"&amp;H11,A8:A307,"&lt;"&amp;H12)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;35, &lt;40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33.691000000000003</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <f>COUNTIFS(A9:A308,"&gt;"&amp;H12,A9:A308,"&lt;"&amp;H13)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;40, &lt;45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.34</v>
       </c>
       <c r="H13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J13">
-        <f>COUNTIFS(A10:A309,"&gt;"&amp;H13,A10:A309,"&lt;"&amp;H14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;45, &lt;50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28.015000000000001</v>
       </c>
       <c r="H14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J14">
-        <f>COUNTIFS(A11:A310,"&gt;"&amp;H14,A11:A310,"&lt;"&amp;H15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;50, &lt;55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.8530000000000002</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J19" si="1">COUNTIFS(A12:A311,"&gt;"&amp;H15,A12:A311,"&lt;"&amp;H16)</f>
+        <f t="shared" ref="J15:J19" si="3">COUNTIFS(A12:A311,"&gt;"&amp;H15,A12:A311,"&lt;"&amp;H16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;55, &lt;60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14.182</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;60, &lt;65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.8689999999999998</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;65, &lt;70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16.518999999999998</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;70, &lt;75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.2210000000000001</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;75, &lt;80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32.106999999999999</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.8760000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24.597000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7.5830000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14.206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.532</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.9369999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.8890000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.7210000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.6379999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.532</v>
       </c>
